--- a/Angular_Mock_Interview.xlsx
+++ b/Angular_Mock_Interview.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srivatsan/Desktop/tcs_trng_aug_2025/interview_questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD73BB5D-E1BC-A847-B22B-277A14EB56EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9ED8FE-7753-8340-A6BA-09C836DAE367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{17834609-D848-1D49-9A13-E536E3E22517}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{17834609-D848-1D49-9A13-E536E3E22517}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="First_round" sheetId="1" r:id="rId1"/>
+    <sheet name="Second_Round" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
   <si>
     <t>Question</t>
   </si>
@@ -302,13 +303,368 @@
   </si>
   <si>
     <t xml:space="preserve">Kep points to consider forDesigning a robust Angular component architecture </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What is the difference between </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>pathMatch: 'full'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>pathMatch: 'prefix'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>pathMatch: 'full':</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> The router will only match the route if the entire URL path is an exact match. This is crucial for redirecting from an empty path (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>''</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) to another route, preventing an infinite loop.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>pathMatch: 'prefix': This is the default behavior. The router matches the path if it is a prefix of the URL. This is used for parent-child routing configurations, where the parent route matches the start of the URL and the rest is matched by its children.</t>
+    </r>
+  </si>
+  <si>
+    <t>Explain the Angular architecture in detail, including Modules, Components, Services, and Directives. How do they interact?</t>
+  </si>
+  <si>
+    <t>Describe the Angular Component Lifecycle hooks. When would you use each hook? Provide a real-world example for ngOnInit and ngOnDestroy.</t>
+  </si>
+  <si>
+    <t>Explain Lazy Loading in Angular. How does it improve application performance?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How  would you choose a particular The Data Binding in angular </t>
+  </si>
+  <si>
+    <t>What are Observables, and how do they differ from Promises?</t>
+  </si>
+  <si>
+    <t>Usage of Angular Guards and Resolvers in routing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare state management schemes in a large-scale Angular application? (e.g., NgRx, services). </t>
+  </si>
+  <si>
+    <t>unit testing in Angular?Testing frameworks used for the same</t>
+  </si>
+  <si>
+    <t>What is AOT (Ahead-of-Time) compilation? What are its advantages?</t>
+  </si>
+  <si>
+    <t>Diffrentiate Between Reactive Form and Template Driven Forms</t>
+  </si>
+  <si>
+    <t>How would you handle logging in angular apps</t>
+  </si>
+  <si>
+    <t>Techniques for sharing data between components.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standalone version in angular </t>
+  </si>
+  <si>
+    <t>What are the new version in Angular and their feature</t>
+  </si>
+  <si>
+    <t>What the budilding block of Angular</t>
+  </si>
+  <si>
+    <t>What are Angular Components and how are they created?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name Common Directive in angular </t>
+  </si>
+  <si>
+    <t>How do you create a Custom Directive</t>
+  </si>
+  <si>
+    <t>Purpose of angular Services</t>
+  </si>
+  <si>
+    <t>How do you do DI in angular</t>
+  </si>
+  <si>
+    <t>Name the most widely used angular hooks and therir use cases</t>
+  </si>
+  <si>
+    <t>What is typescript and its relation to Angular</t>
+  </si>
+  <si>
+    <t>What is Server Sdie Rendering in angular</t>
+  </si>
+  <si>
+    <t>How do you create a Form With Dynamic controls</t>
+  </si>
+  <si>
+    <t>Why do we need commonModule</t>
+  </si>
+  <si>
+    <r>
+      <t>The Angular directives like </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>NgIf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>NgFor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>NgSwitch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>NgClass</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>NgStyle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, and pipes like </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>AsyncPipe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>CurrencyPipe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>DatePipe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>DecimalPipe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>JsonPipe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>LowerCasePipe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, among others. These are crucial for common templating tasks such as conditional rendering, looping through data, applying styles dynamically, and formatting data for display.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -346,6 +702,32 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -367,13 +749,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -711,7 +1099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87204761-9C74-3748-AF0B-56676EB69DBE}">
   <dimension ref="A3:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -1003,4 +1391,238 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AABF434-3A18-A04E-A987-3296904D0747}">
+  <dimension ref="A5:C30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="48.33203125" customWidth="1"/>
+    <col min="3" max="3" width="85.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:3" ht="162" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>